--- a/data/Zweifel.xlsx
+++ b/data/Zweifel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="MatchCosts" sheetId="7" r:id="rId4"/>
     <sheet name="StreamData" sheetId="2" r:id="rId5"/>
     <sheet name="EconomicData" sheetId="8" r:id="rId6"/>
-    <sheet name="ManualParameters" sheetId="4" r:id="rId7"/>
+    <sheet name="ManualParameter" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>HEX</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Q_UT_existent</t>
   </si>
   <si>
-    <t>MaxBypass</t>
-  </si>
-  <si>
     <t>MinimalHeatLoad</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>InterestRate</t>
   </si>
   <si>
-    <t>OneMixerBool</t>
-  </si>
-  <si>
     <t>BUT_HEX</t>
   </si>
   <si>
@@ -214,6 +208,24 @@
   </si>
   <si>
     <t>OC2</t>
+  </si>
+  <si>
+    <t>by_hs</t>
+  </si>
+  <si>
+    <t>by_cs</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>c_R</t>
   </si>
 </sst>
 </file>
@@ -265,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -273,8 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -555,16 +565,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K9"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,25 +588,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>30</v>
@@ -661,123 +671,705 @@
       <c r="AF1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1474</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>577*3</f>
+        <v>1731</v>
+      </c>
+      <c r="M2">
+        <v>0.61</v>
+      </c>
+      <c r="N2">
+        <f>577*1.1*J2^0.61</f>
+        <v>3444.1470665241495</v>
+      </c>
+      <c r="O2">
+        <v>40000</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>40000</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>40000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f>W2/3*1.1</f>
+        <v>14666.666666666668</v>
+      </c>
+      <c r="AA2">
+        <v>68000</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>40000</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1474</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="0">577*3</f>
+        <v>1731</v>
+      </c>
+      <c r="M3">
+        <v>0.61</v>
+      </c>
+      <c r="N3">
+        <f>577*1.1*J3^0.61</f>
+        <v>1109.9716936396296</v>
+      </c>
+      <c r="O3">
+        <v>40000</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>40000</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>40000</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <f>W3/3*1.1</f>
+        <v>14666.666666666668</v>
+      </c>
+      <c r="AA3">
+        <v>68000</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>40000</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1474</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1731</v>
+      </c>
+      <c r="M4">
+        <v>0.61</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>40000</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>40000</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>40000</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1474</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1731</v>
+      </c>
+      <c r="M5">
+        <v>0.61</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>40000</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>40000</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>40000</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1474</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1731</v>
+      </c>
+      <c r="M6">
+        <v>0.61</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>40000</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>40000</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>40000</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
-        <v>18920</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1474</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1731</v>
+      </c>
+      <c r="M7">
+        <v>0.61</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>40000</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>40000</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>40000</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8">
-        <v>18920</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1474</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>18920</v>
-      </c>
-      <c r="I9">
-        <v>1474</v>
-      </c>
-      <c r="J9">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1731</v>
+      </c>
+      <c r="M8">
+        <v>0.61</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>40000</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>40000</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>40000</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -788,85 +1380,97 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -876,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,12 +1491,12 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -907,10 +1511,13 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -918,22 +1525,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1474</v>
+        <f>577*3</f>
+        <v>1731</v>
       </c>
       <c r="F2">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G2">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -941,22 +1552,27 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1474</v>
+        <f t="shared" ref="E3:E8" si="0">577*3</f>
+        <v>1731</v>
       </c>
       <c r="F3">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>577*1.1*H3^0.61</f>
+        <v>1815.3618095450245</v>
+      </c>
+      <c r="H3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -964,22 +1580,26 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1474</v>
+        <f t="shared" si="0"/>
+        <v>1731</v>
       </c>
       <c r="F4">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -987,22 +1607,26 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>18920</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1474</v>
+        <f t="shared" si="0"/>
+        <v>1731</v>
       </c>
       <c r="F5">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1010,22 +1634,27 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1474</v>
+        <f t="shared" si="0"/>
+        <v>1731</v>
       </c>
       <c r="F6">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G6">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>577*1.1*H6^0.61</f>
+        <v>553.92809173515343</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1033,22 +1662,27 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1474</v>
+        <f t="shared" si="0"/>
+        <v>1731</v>
       </c>
       <c r="F7">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G7">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>577*1.1*H7^0.61</f>
+        <v>1652.4398245050991</v>
+      </c>
+      <c r="H7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1056,42 +1690,24 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1474</v>
+        <f t="shared" si="0"/>
+        <v>1731</v>
       </c>
       <c r="F8">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G8">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>18920</v>
-      </c>
-      <c r="E9">
-        <v>1474</v>
-      </c>
-      <c r="F9">
-        <v>0.63</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <f t="shared" ref="G8" si="1">577*1.1*H8^0.61</f>
+        <v>415.85334671445162</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1101,43 +1717,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>100.6</v>
+      </c>
+      <c r="C3">
+        <v>68.900000000000006</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>56.3</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>247.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1147,17 +1820,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1171,19 +1847,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>100000</v>
+        <v>900</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,13 +1867,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="D3">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="E3">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,13 +1881,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5000</v>
+        <v>2100</v>
       </c>
       <c r="D4">
-        <v>100000</v>
+        <v>600</v>
       </c>
       <c r="E4">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1219,13 +1895,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5000</v>
+        <v>2100</v>
       </c>
       <c r="D5">
-        <v>100000</v>
+        <v>300</v>
       </c>
       <c r="E5">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1233,13 +1909,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5000</v>
+        <v>2100</v>
       </c>
       <c r="D6">
-        <v>100000</v>
+        <v>300</v>
       </c>
       <c r="E6">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,27 +1923,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>5000</v>
-      </c>
-      <c r="D8">
-        <v>5000</v>
-      </c>
-      <c r="E8">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1277,11 +1939,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,13 +1984,13 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>22</v>
@@ -1348,16 +2010,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>161.4</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="F2">
-        <v>86.4</v>
+        <v>1.4359999999999999</v>
       </c>
       <c r="G2">
-        <v>2.4049999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="H2">
         <v>0.4</v>
@@ -1369,14 +2031,14 @@
         <v>4410</v>
       </c>
       <c r="K2">
-        <f>ABS(D2-E2)*G2*F2</f>
-        <v>3033.763199999999</v>
+        <f t="shared" ref="K2:K8" si="0">ABS(D2-E2)*G2*F2</f>
+        <v>233.709</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>210</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1390,19 +2052,19 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>1.4359999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="G3">
-        <v>1.75</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.4</v>
+        <v>1.018</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1411,14 +2073,14 @@
         <v>4410</v>
       </c>
       <c r="K3">
-        <f>ABS(D3-E3)*G3*F3</f>
-        <v>233.709</v>
+        <f t="shared" si="0"/>
+        <v>45.504599999999996</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1432,19 +2094,19 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="F4">
-        <v>1.49</v>
+        <v>0.154</v>
       </c>
       <c r="G4">
-        <v>1.018</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1454,13 +2116,13 @@
       </c>
       <c r="K4">
         <f>ABS(D4-E4)*G4*F4</f>
-        <v>45.504599999999996</v>
+        <v>56.29623999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>300</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1474,16 +2136,16 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.4049999999999998</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0.4</v>
@@ -1495,14 +2157,14 @@
         <v>4410</v>
       </c>
       <c r="K5">
-        <f>ABS(D5-E5)*G5*F5</f>
-        <v>56.29623999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1528,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1537,7 +2199,7 @@
         <v>4410</v>
       </c>
       <c r="K6">
-        <f>ABS(D6-E6)*G6*F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
@@ -1549,28 +2211,28 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1579,19 +2241,19 @@
         <v>4410</v>
       </c>
       <c r="K7">
-        <f>ABS(D7-E7)*G7*F7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3702.65</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1600,19 +2262,19 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>2.98</v>
+        <v>0.44</v>
       </c>
       <c r="G8">
-        <v>4.97</v>
+        <v>1.8</v>
       </c>
       <c r="H8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1621,152 +2283,153 @@
         <v>4410</v>
       </c>
       <c r="K8">
-        <f>ABS(D8-E8)*G8*F8</f>
-        <v>3702.65</v>
+        <f t="shared" si="0"/>
+        <v>100.584</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>151</v>
-      </c>
-      <c r="E9">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>0.44</v>
-      </c>
-      <c r="G9">
-        <v>1.8</v>
-      </c>
-      <c r="H9">
-        <v>0.3</v>
-      </c>
-      <c r="I9">
+      <c r="D9" s="4">
+        <v>300</v>
+      </c>
+      <c r="E9" s="2">
+        <v>299</v>
+      </c>
+      <c r="F9" s="4">
+        <f>K9/(G9*(D9-E9))</f>
+        <v>1.379E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>220000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9">
         <v>4410</v>
       </c>
-      <c r="K9">
-        <f>ABS(D9-E9)*G9*F9</f>
-        <v>100.584</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="K9" s="5">
+        <v>3033.8</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>299</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <f>K10/(G10*ABS(D10-E10))</f>
+        <v>24.066985645933016</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4410</v>
+      </c>
+      <c r="K10" s="6">
+        <v>100.6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
-        <v>300</v>
-      </c>
-      <c r="E10" s="2">
-        <v>299</v>
-      </c>
-      <c r="F10" s="4">
-        <f>K10/(G10*(D10-E10))</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>220000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="N10" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>125.9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>226.1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.448</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H11">
+        <v>0.4</v>
+      </c>
+      <c r="I11">
         <v>4410</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>299</v>
-      </c>
-      <c r="N10" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <f>K11/(G11*(D11-E11))</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4.18</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4410</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.04</v>
-      </c>
+      <c r="J11" s="2">
+        <v>7020</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K17" si="1">ABS(D11-E11)*G11*F11</f>
+        <v>245.20142399999995</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>500</v>
+      </c>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1775,41 +2438,41 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>154.69999999999999</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
-        <v>87.1</v>
+        <v>1.456</v>
       </c>
       <c r="G12" s="2">
-        <v>2.375</v>
+        <v>1.018</v>
       </c>
       <c r="H12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I12">
         <v>4410</v>
       </c>
       <c r="J12" s="2">
         <v>7020</v>
       </c>
       <c r="K12">
-        <f>ABS(D12-E12)*G12*F12</f>
-        <v>2337.5462500000021</v>
+        <f t="shared" si="1"/>
+        <v>44.466239999999999</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1818,18 +2481,18 @@
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>125.9</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2">
-        <v>226.1</v>
+        <v>166</v>
       </c>
       <c r="F13" s="2">
-        <v>1.448</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="G13" s="2">
-        <v>1.69</v>
-      </c>
-      <c r="H13" s="8">
+        <v>2.375</v>
+      </c>
+      <c r="H13" s="2">
         <v>0.4</v>
       </c>
       <c r="I13">
@@ -1839,20 +2502,20 @@
         <v>7020</v>
       </c>
       <c r="K13">
-        <f>ABS(D13-E13)*G13*F13</f>
-        <v>245.20142399999995</v>
+        <f t="shared" si="1"/>
+        <v>25.968250000000001</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1861,19 +2524,19 @@
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>10</v>
+        <v>163.4</v>
       </c>
       <c r="E14" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="F14" s="2">
-        <v>1.456</v>
+        <v>9.14</v>
       </c>
       <c r="G14" s="2">
-        <v>1.018</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H14" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I14">
         <v>4410</v>
@@ -1882,20 +2545,20 @@
         <v>7020</v>
       </c>
       <c r="K14">
-        <f>ABS(D14-E14)*G14*F14</f>
-        <v>44.466239999999999</v>
+        <f t="shared" si="1"/>
+        <v>247.05419999999987</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1904,16 +2567,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>24</v>
+        <v>144.9</v>
       </c>
       <c r="E15" s="2">
-        <v>166</v>
+        <v>145.1</v>
       </c>
       <c r="F15" s="2">
-        <v>7.6999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G15" s="2">
-        <v>2.375</v>
+        <v>13623</v>
       </c>
       <c r="H15" s="2">
         <v>0.4</v>
@@ -1925,38 +2588,38 @@
         <v>7020</v>
       </c>
       <c r="K15">
-        <f>ABS(D15-E15)*G15*F15</f>
-        <v>25.968250000000001</v>
+        <f t="shared" si="1"/>
+        <v>187.99739999998934</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>210</v>
+        <v>145.1</v>
       </c>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>163.4</v>
+        <v>270.39999999999998</v>
       </c>
       <c r="E16" s="2">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2">
-        <v>9.14</v>
+        <v>2.96</v>
       </c>
       <c r="G16" s="2">
-        <v>2.5499999999999998</v>
+        <v>4.83</v>
       </c>
       <c r="H16" s="2">
         <v>0.4</v>
@@ -1968,41 +2631,41 @@
         <v>7020</v>
       </c>
       <c r="K16">
-        <f>ABS(D16-E16)*G16*F16</f>
-        <v>247.05419999999987</v>
+        <f t="shared" si="1"/>
+        <v>3436.9507199999994</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2">
         <v>2</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
-        <v>144.9</v>
+        <v>150</v>
       </c>
       <c r="E17" s="2">
-        <v>145.1</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
-        <v>6.9000000000000006E-2</v>
+        <v>0.32</v>
       </c>
       <c r="G17" s="2">
-        <v>13623</v>
+        <v>1.71</v>
       </c>
       <c r="H17" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I17">
         <v>4410</v>
@@ -2011,205 +2674,119 @@
         <v>7020</v>
       </c>
       <c r="K17">
-        <f>ABS(D17-E17)*G17*F17</f>
-        <v>187.99739999998934</v>
+        <f t="shared" si="1"/>
+        <v>68.947200000000009</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>145.1</v>
+        <v>24</v>
       </c>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2">
-        <v>270.39999999999998</v>
+        <v>300</v>
       </c>
       <c r="E18" s="2">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.96</v>
+        <v>299</v>
+      </c>
+      <c r="F18" s="4">
+        <f>K18/(G18*(D18-E18))</f>
+        <v>1.2602727272727272E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>4.83</v>
+        <v>220000</v>
       </c>
       <c r="H18" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
         <v>4410</v>
       </c>
       <c r="J18" s="2">
         <v>7020</v>
       </c>
-      <c r="K18">
-        <f>ABS(D18-E18)*G18*F18</f>
-        <v>3436.9507199999994</v>
+      <c r="K18" s="5">
+        <v>2772.6</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>30</v>
-      </c>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v>299</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <f>K19/(G19*ABS(D19-E19))</f>
+        <v>16.483253588516749</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="H19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="I19" s="1">
+        <v>4410</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7020</v>
+      </c>
+      <c r="K19" s="6">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <v>10</v>
       </c>
-      <c r="D19" s="2">
-        <v>150</v>
-      </c>
-      <c r="E19" s="2">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I19">
-        <v>4410</v>
-      </c>
-      <c r="J19" s="2">
-        <v>7020</v>
-      </c>
-      <c r="K19">
-        <f>ABS(D19-E19)*G19*F19</f>
-        <v>68.947200000000009</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>24</v>
-      </c>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2">
-        <v>300</v>
-      </c>
-      <c r="E20" s="2">
-        <v>299</v>
-      </c>
-      <c r="F20" s="4">
-        <f>K20/(G20*(D20-E20))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>220000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4410</v>
-      </c>
-      <c r="J20" s="2">
-        <v>7020</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>299</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <f>K21/(G21*(D21-E21))</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4.18</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4410</v>
-      </c>
-      <c r="J21" s="1">
-        <v>7020</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>10</v>
-      </c>
-      <c r="N21" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
+      <c r="N19" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="26" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -2220,21 +2797,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,21 +2830,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2277,16 +2855,10 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2294,16 +2866,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>100000000</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>

--- a/data/Zweifel.xlsx
+++ b/data/Zweifel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>GA_TAC_Penalty</t>
   </si>
   <si>
-    <t>Q_UT_existent</t>
-  </si>
-  <si>
     <t>MinimalHeatLoad</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>c_R</t>
+  </si>
+  <si>
+    <t>tonsCO2emissionsperkWh</t>
   </si>
 </sst>
 </file>
@@ -588,13 +588,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>24</v>
@@ -606,70 +606,70 @@
         <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -1511,7 +1511,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>25</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1727,13 +1727,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1941,9 +1941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,19 +1984,19 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,9 @@
       <c r="N9" s="4">
         <v>0.08</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2383,6 +2385,9 @@
       <c r="N10" s="1">
         <v>0.04</v>
       </c>
+      <c r="O10" s="1">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2729,7 +2734,9 @@
       <c r="N18" s="4">
         <v>0.08</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2774,6 +2781,9 @@
       </c>
       <c r="N19" s="1">
         <v>0.04</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.21</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2809,10 +2819,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,7 +2842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
@@ -2852,7 +2862,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>

--- a/data/Zweifel.xlsx
+++ b/data/Zweifel.xlsx
@@ -1943,7 +1943,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomLeft" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F9" s="4">
         <f>K9/(G9*(D9-E9))</f>
-        <v>1.379E-2</v>
+        <v>2.5590909090909088E-4</v>
       </c>
       <c r="G9" s="2">
         <v>220000</v>
@@ -2326,7 +2326,7 @@
         <v>4410</v>
       </c>
       <c r="K9" s="5">
-        <v>3033.8</v>
+        <v>56.3</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="F18" s="4">
         <f>K18/(G18*(D18-E18))</f>
-        <v>1.2602727272727272E-2</v>
+        <v>2.095909090909091E-3</v>
       </c>
       <c r="G18" s="2">
         <v>220000</v>
@@ -2723,7 +2723,7 @@
         <v>7020</v>
       </c>
       <c r="K18" s="5">
-        <v>2772.6</v>
+        <v>461.1</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>

--- a/data/Zweifel.xlsx
+++ b/data/Zweifel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DEB6C9-A590-495B-BEC0-2DAEE639ED5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -15,10 +16,19 @@
     <sheet name="EconomicData" sheetId="8" r:id="rId6"/>
     <sheet name="ManualParameter" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -105,9 +115,6 @@
     <t>A_ex</t>
   </si>
   <si>
-    <t>GA_TAC_Penalty</t>
-  </si>
-  <si>
     <t>MinimalHeatLoad</t>
   </si>
   <si>
@@ -226,12 +233,15 @@
   </si>
   <si>
     <t>tonsCO2emissionsperkWh</t>
+  </si>
+  <si>
+    <t>TACEmissionWeightFactor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -588,13 +598,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>24</v>
@@ -606,70 +616,70 @@
         <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1479,7 +1489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1496,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -1511,7 +1521,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>25</v>
@@ -1525,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1552,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1580,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1607,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1634,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1662,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1690,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1716,7 +1726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1727,13 +1737,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,7 +1829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1833,7 +1843,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1847,7 +1857,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1938,10 +1948,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q29" sqref="Q29"/>
     </sheetView>
@@ -1984,19 +1994,19 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2804,7 +2814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2819,10 +2829,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,19 +2849,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2862,10 +2871,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>500000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Zweifel.xlsx
+++ b/data/Zweifel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DEB6C9-A590-495B-BEC0-2DAEE639ED5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F849C18-793D-4750-A72F-6BC51CA80C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2854,7 +2854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,9 +2887,6 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/Zweifel.xlsx
+++ b/data/Zweifel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F849C18-793D-4750-A72F-6BC51CA80C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02065ABF-F58B-4202-A30C-07F94E63114D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29880" yWindow="1395" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -2887,6 +2887,9 @@
       <c r="C2">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/Zweifel.xlsx
+++ b/data/Zweifel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02065ABF-F58B-4202-A30C-07F94E63114D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D214C6CC-BDD6-4463-B6D2-386C8B4C4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1395" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23280" yWindow="3945" windowWidth="21600" windowHeight="12735" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <t>tonsCO2emissionsperkWh</t>
   </si>
   <si>
-    <t>TACEmissionWeightFactor</t>
+    <t>AbsHeatLoadTol</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +1953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,13 +2854,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2888,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Zweifel.xlsx
+++ b/data/Zweifel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D214C6CC-BDD6-4463-B6D2-386C8B4C4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8BC2B5-8F22-4774-A69A-7A0C0EC44F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23280" yWindow="3945" windowWidth="21600" windowHeight="12735" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -242,6 +242,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -295,6 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -577,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
@@ -1953,13 +1957,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2348,7 +2352,8 @@
         <v>0.08</v>
       </c>
       <c r="O9" s="2">
-        <v>0.21</v>
+        <f>56.2/0.9/277777.78</f>
+        <v>2.2479999820159999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2395,8 +2400,9 @@
       <c r="N10" s="1">
         <v>0.04</v>
       </c>
-      <c r="O10" s="1">
-        <v>0.21</v>
+      <c r="O10" s="7">
+        <f>0.000128/(0.55*(273.15-5 )/25)</f>
+        <v>2.1697489532656418E-5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2745,7 +2751,8 @@
         <v>0.08</v>
       </c>
       <c r="O18" s="2">
-        <v>0.21</v>
+        <f>56.2/0.9/277777.78</f>
+        <v>2.2479999820159999E-4</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2792,8 +2799,9 @@
       <c r="N19" s="1">
         <v>0.04</v>
       </c>
-      <c r="O19" s="1">
-        <v>0.21</v>
+      <c r="O19" s="7">
+        <f>0.000128/(0.55*(273.15-5 )/25)</f>
+        <v>2.1697489532656418E-5</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2852,7 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
